--- a/org_eval/resources/data.xlsx
+++ b/org_eval/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sandbox\git\org-eval\org_eval\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="p3toz2Sd8Ywi6icSrFWnj5RAsQpibNmg0CpHWDiufmZKmkh4oxVDGy7uVcFTTxj9XOlKDo14k0/bfRjsb0qzag==" workbookSaltValue="yU8Ba/w7HJOqKEmzrvZVnQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="gdhS0tNbxqcAoVT1mIqD5h2x1MrzFHxY282Gi3m90gLDAaZx0TS3DzQpgBbKbAVika+2NN7OJnD9r6Vg/tXJQA==" workbookSaltValue="B1crDBgxi4nTbRi39IZzSw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
   <si>
     <t>Nama</t>
   </si>
@@ -37,18 +37,12 @@
     <t>Jabatan</t>
   </si>
   <si>
-    <t>BAGIAN</t>
-  </si>
-  <si>
     <t>Hirkanus Fransiskus Humune</t>
   </si>
   <si>
     <t>Ketua Umum</t>
   </si>
   <si>
-    <t>BPH</t>
-  </si>
-  <si>
     <t>Roky Ade Boby Panduwal</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>Ketua Komisi Program</t>
   </si>
   <si>
-    <t>Program</t>
-  </si>
-  <si>
     <t>Sita Angelia</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>Ketua Komisi Organisasi</t>
   </si>
   <si>
-    <t>Organisasi</t>
-  </si>
-  <si>
     <t>Valentinus Mitchell Rahina Surya</t>
   </si>
   <si>
@@ -142,9 +130,6 @@
     <t>Ketua Komisi Anggaran</t>
   </si>
   <si>
-    <t>Anggaran</t>
-  </si>
-  <si>
     <t>Rosa Dyah Anggraini</t>
   </si>
   <si>
@@ -172,9 +157,6 @@
     <t>Ketua Komisi Advokasi</t>
   </si>
   <si>
-    <t>Advokasi</t>
-  </si>
-  <si>
     <t>Yosua Dede Kartiko Utomo</t>
   </si>
   <si>
@@ -211,16 +193,7 @@
     <t>Evaluator</t>
   </si>
   <si>
-    <t>Ketua Komisi</t>
-  </si>
-  <si>
-    <t>Sekretaris Komisi</t>
-  </si>
-  <si>
-    <t>Anggota Komisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPH </t>
+    <t>Keterangan</t>
   </si>
 </sst>
 </file>
@@ -291,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,6 +284,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,20 +582,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" hidden="1"/>
+    <col min="4" max="4" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -620,496 +608,1519 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>462015039</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="str">
+        <f>IF(ISBLANK(C2),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C2)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>712016045</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" s="9" t="str">
+        <f>IF(ISBLANK(C3),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C3)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>112016091</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f>IF(ISBLANK(C4),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C4)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>362015120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="str">
+        <f>IF(ISBLANK(C5),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C5)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>802015119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f>IF(ISBLANK(C6),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C6)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>672016145</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f>IF(ISBLANK(C7),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C7)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
         <v>362015114</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f>IF(ISBLANK(C8),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C8)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>362015150</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D9" s="9" t="str">
+        <f>IF(ISBLANK(C9),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C9)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>522016049</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f>IF(ISBLANK(C10),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C10)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>522015054</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D11" s="9" t="str">
+        <f>IF(ISBLANK(C11),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C11)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3">
         <v>412015019</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D12" s="9" t="str">
+        <f>IF(ISBLANK(C12),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C12)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
         <v>802015184</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D13" s="9" t="str">
+        <f>IF(ISBLANK(C13),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C13)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3">
         <v>662015010</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="str">
+        <f>IF(ISBLANK(C14),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C14)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
         <v>612016002</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D15" s="9" t="str">
+        <f>IF(ISBLANK(C15),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C15)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3">
         <v>212015265</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
         <v>26</v>
+      </c>
+      <c r="D16" s="9" t="str">
+        <f>IF(ISBLANK(C16),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C16)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3">
         <v>312015076</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
         <v>26</v>
+      </c>
+      <c r="D17" s="9" t="str">
+        <f>IF(ISBLANK(C17),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C17)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3">
         <v>672016198</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
         <v>26</v>
+      </c>
+      <c r="D18" s="9" t="str">
+        <f>IF(ISBLANK(C18),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C18)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3">
         <v>802015033</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
         <v>26</v>
+      </c>
+      <c r="D19" s="9" t="str">
+        <f>IF(ISBLANK(C19),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C19)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3">
         <v>712015118</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
         <v>26</v>
+      </c>
+      <c r="D20" s="9" t="str">
+        <f>IF(ISBLANK(C20),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C20)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3">
         <v>712015065</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
         <v>26</v>
+      </c>
+      <c r="D21" s="9" t="str">
+        <f>IF(ISBLANK(C21),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C21)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3">
         <v>362015129</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="D22" s="9" t="str">
+        <f>IF(ISBLANK(C22),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C22)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3">
         <v>802015127</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="D23" s="9" t="str">
+        <f>IF(ISBLANK(C23),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C23)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3">
         <v>432015015</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D24" s="9" t="str">
+        <f>IF(ISBLANK(C24),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C24)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3">
         <v>672016159</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D25" s="9" t="str">
+        <f>IF(ISBLANK(C25),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C25)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3">
         <v>232016076</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <f>IF(ISBLANK(C26),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C26)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3">
         <v>682015009</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D27" s="9" t="str">
+        <f>IF(ISBLANK(C27),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C27)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3">
         <v>192015001</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="D28" s="9" t="str">
+        <f>IF(ISBLANK(C28),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C28)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3">
         <v>362015026</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D29" s="9" t="str">
+        <f>IF(ISBLANK(C29),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C29)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3">
         <v>362015019</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D30" s="9" t="str">
+        <f>IF(ISBLANK(C30),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C30)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B31" s="3">
         <v>462015049</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D31" s="9" t="str">
+        <f>IF(ISBLANK(C31),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C31)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3">
         <v>602015024</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D32" s="9" t="str">
+        <f>IF(ISBLANK(C32),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C32)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B33" s="3">
         <v>312016136</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D33" s="9" t="str">
+        <f>IF(ISBLANK(C33),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C33)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D34" s="9" t="str">
+        <f>IF(ISBLANK(C34),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C34)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3">
         <v>622016003</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D35" s="9" t="str">
+        <f>IF(ISBLANK(C35),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C35)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
+      <c r="D36" s="9" t="str">
+        <f>IF(ISBLANK(C36),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C36)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="9" t="str">
+        <f>IF(ISBLANK(C37),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C37)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="9" t="str">
+        <f>IF(ISBLANK(C38),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C38)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="9" t="str">
+        <f>IF(ISBLANK(C39),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C39)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="9" t="str">
+        <f>IF(ISBLANK(C40),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C40)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="9" t="str">
+        <f>IF(ISBLANK(C41),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C41)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="9" t="str">
+        <f>IF(ISBLANK(C42),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C42)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="9" t="str">
+        <f>IF(ISBLANK(C43),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C43)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="9" t="str">
+        <f>IF(ISBLANK(C44),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C44)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="9" t="str">
+        <f>IF(ISBLANK(C45),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C45)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="9" t="str">
+        <f>IF(ISBLANK(C46),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C46)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="9" t="str">
+        <f>IF(ISBLANK(C47),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C47)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="9" t="str">
+        <f>IF(ISBLANK(C48),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C48)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="9" t="str">
+        <f>IF(ISBLANK(C49),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C49)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="9" t="str">
+        <f>IF(ISBLANK(C50),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C50)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="9" t="str">
+        <f>IF(ISBLANK(C51),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C51)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="9" t="str">
+        <f>IF(ISBLANK(C52),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C52)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="9" t="str">
+        <f>IF(ISBLANK(C53),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C53)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="9" t="str">
+        <f>IF(ISBLANK(C54),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C54)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="9" t="str">
+        <f>IF(ISBLANK(C55),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C55)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="9" t="str">
+        <f>IF(ISBLANK(C56),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C56)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="9" t="str">
+        <f>IF(ISBLANK(C57),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C57)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="9" t="str">
+        <f>IF(ISBLANK(C58),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C58)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="9" t="str">
+        <f>IF(ISBLANK(C59),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C59)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="9" t="str">
+        <f>IF(ISBLANK(C60),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C60)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="9" t="str">
+        <f>IF(ISBLANK(C61),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C61)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="9" t="str">
+        <f>IF(ISBLANK(C62),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C62)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="9" t="str">
+        <f>IF(ISBLANK(C63),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C63)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="9" t="str">
+        <f>IF(ISBLANK(C64),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C64)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="9" t="str">
+        <f>IF(ISBLANK(C65),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C65)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="9" t="str">
+        <f>IF(ISBLANK(C66),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C66)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="9" t="str">
+        <f>IF(ISBLANK(C67),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C67)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="9" t="str">
+        <f>IF(ISBLANK(C68),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C68)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="9" t="str">
+        <f>IF(ISBLANK(C69),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C69)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="9" t="str">
+        <f>IF(ISBLANK(C70),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C70)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="9" t="str">
+        <f>IF(ISBLANK(C71),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C71)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="9" t="str">
+        <f>IF(ISBLANK(C72),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C72)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="9" t="str">
+        <f>IF(ISBLANK(C73),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C73)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="9" t="str">
+        <f>IF(ISBLANK(C74),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C74)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="9" t="str">
+        <f>IF(ISBLANK(C75),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C75)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="9" t="str">
+        <f>IF(ISBLANK(C76),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C76)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="9" t="str">
+        <f>IF(ISBLANK(C77),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C77)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="9" t="str">
+        <f>IF(ISBLANK(C78),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C78)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="9" t="str">
+        <f>IF(ISBLANK(C79),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C79)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="9" t="str">
+        <f>IF(ISBLANK(C80),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C80)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="9" t="str">
+        <f>IF(ISBLANK(C81),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C81)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="9" t="str">
+        <f>IF(ISBLANK(C82),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C82)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="9" t="str">
+        <f>IF(ISBLANK(C83),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C83)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="9" t="str">
+        <f>IF(ISBLANK(C84),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C84)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="9" t="str">
+        <f>IF(ISBLANK(C85),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C85)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="9" t="str">
+        <f>IF(ISBLANK(C86),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C86)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="9" t="str">
+        <f>IF(ISBLANK(C87),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C87)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="9" t="str">
+        <f>IF(ISBLANK(C88),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C88)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="9" t="str">
+        <f>IF(ISBLANK(C89),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C89)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="9" t="str">
+        <f>IF(ISBLANK(C90),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C90)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="9" t="str">
+        <f>IF(ISBLANK(C91),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C91)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="9" t="str">
+        <f>IF(ISBLANK(C92),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C92)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="9" t="str">
+        <f>IF(ISBLANK(C93),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C93)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="9" t="str">
+        <f>IF(ISBLANK(C94),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C94)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="9" t="str">
+        <f>IF(ISBLANK(C95),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C95)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="9" t="str">
+        <f>IF(ISBLANK(C96),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C96)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="9" t="str">
+        <f>IF(ISBLANK(C97),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C97)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="9" t="str">
+        <f>IF(ISBLANK(C98),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C98)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="9" t="str">
+        <f>IF(ISBLANK(C99),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C99)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="9" t="str">
+        <f>IF(ISBLANK(C100),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C100)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="9" t="str">
+        <f>IF(ISBLANK(C101),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C101)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="9" t="str">
+        <f>IF(ISBLANK(C102),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C102)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="9" t="str">
+        <f>IF(ISBLANK(C103),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C103)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="9" t="str">
+        <f>IF(ISBLANK(C104),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C104)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="9" t="str">
+        <f>IF(ISBLANK(C105),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C105)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="9" t="str">
+        <f>IF(ISBLANK(C106),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C106)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="9" t="str">
+        <f>IF(ISBLANK(C107),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C107)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="9" t="str">
+        <f>IF(ISBLANK(C108),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C108)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="9" t="str">
+        <f>IF(ISBLANK(C109),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C109)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="9" t="str">
+        <f>IF(ISBLANK(C110),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C110)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="9" t="str">
+        <f>IF(ISBLANK(C111),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C111)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="9" t="str">
+        <f>IF(ISBLANK(C112),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C112)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="9" t="str">
+        <f>IF(ISBLANK(C113),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C113)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="9" t="str">
+        <f>IF(ISBLANK(C114),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C114)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="9" t="str">
+        <f>IF(ISBLANK(C115),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C115)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="9" t="str">
+        <f>IF(ISBLANK(C116),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C116)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="9" t="str">
+        <f>IF(ISBLANK(C117),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C117)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="9" t="str">
+        <f>IF(ISBLANK(C118),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C118)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="9" t="str">
+        <f>IF(ISBLANK(C119),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C119)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="9" t="str">
+        <f>IF(ISBLANK(C120),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C120)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="9" t="str">
+        <f>IF(ISBLANK(C121),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C121)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="9" t="str">
+        <f>IF(ISBLANK(C122),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C122)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="9" t="str">
+        <f>IF(ISBLANK(C123),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C123)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="9" t="str">
+        <f>IF(ISBLANK(C124),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C124)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="9" t="str">
+        <f>IF(ISBLANK(C125),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C125)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="9" t="str">
+        <f>IF(ISBLANK(C126),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C126)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="9" t="str">
+        <f>IF(ISBLANK(C127),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C127)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="9" t="str">
+        <f>IF(ISBLANK(C128),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C128)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="9" t="str">
+        <f>IF(ISBLANK(C129),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C129)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="9" t="str">
+        <f>IF(ISBLANK(C130),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C130)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="9" t="str">
+        <f>IF(ISBLANK(C131),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C131)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="9" t="str">
+        <f>IF(ISBLANK(C132),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C132)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="9" t="str">
+        <f>IF(ISBLANK(C133),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C133)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="9" t="str">
+        <f>IF(ISBLANK(C134),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C134)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="9" t="str">
+        <f>IF(ISBLANK(C135),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C135)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="9" t="str">
+        <f>IF(ISBLANK(C136),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C136)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="9" t="str">
+        <f>IF(ISBLANK(C137),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C137)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="9" t="str">
+        <f>IF(ISBLANK(C138),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C138)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="9" t="str">
+        <f>IF(ISBLANK(C139),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C139)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="9" t="str">
+        <f>IF(ISBLANK(C140),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C140)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="9" t="str">
+        <f>IF(ISBLANK(C141),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C141)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="9" t="str">
+        <f>IF(ISBLANK(C142),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C142)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="9" t="str">
+        <f>IF(ISBLANK(C143),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C143)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="9" t="str">
+        <f>IF(ISBLANK(C144),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C144)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="9" t="str">
+        <f>IF(ISBLANK(C145),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C145)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="9" t="str">
+        <f>IF(ISBLANK(C146),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C146)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="9" t="str">
+        <f>IF(ISBLANK(C147),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C147)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="9" t="str">
+        <f>IF(ISBLANK(C148),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C148)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="9" t="str">
+        <f>IF(ISBLANK(C149),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C149)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="9" t="str">
+        <f>IF(ISBLANK(C150),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C150)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="9" t="str">
+        <f>IF(ISBLANK(C151),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C151)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="9" t="str">
+        <f>IF(ISBLANK(C152),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C152)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="9" t="str">
+        <f>IF(ISBLANK(C153),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C153)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="9" t="str">
+        <f>IF(ISBLANK(C154),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C154)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="9" t="str">
+        <f>IF(ISBLANK(C155),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C155)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="9" t="str">
+        <f>IF(ISBLANK(C156),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C156)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="9" t="str">
+        <f>IF(ISBLANK(C157),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C157)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="9" t="str">
+        <f>IF(ISBLANK(C158),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C158)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="9" t="str">
+        <f>IF(ISBLANK(C159),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C159)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="9" t="str">
+        <f>IF(ISBLANK(C160),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C160)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="9" t="str">
+        <f>IF(ISBLANK(C161),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C161)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="9" t="str">
+        <f>IF(ISBLANK(C162),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C162)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="9" t="str">
+        <f>IF(ISBLANK(C163),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C163)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="9" t="str">
+        <f>IF(ISBLANK(C164),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C164)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="9" t="str">
+        <f>IF(ISBLANK(C165),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C165)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="9" t="str">
+        <f>IF(ISBLANK(C166),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C166)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="9" t="str">
+        <f>IF(ISBLANK(C167),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C167)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="9" t="str">
+        <f>IF(ISBLANK(C168),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C168)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="9" t="str">
+        <f>IF(ISBLANK(C169),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C169)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="9" t="str">
+        <f>IF(ISBLANK(C170),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C170)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="9" t="str">
+        <f>IF(ISBLANK(C171),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C171)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="9" t="str">
+        <f>IF(ISBLANK(C172),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C172)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="9" t="str">
+        <f>IF(ISBLANK(C173),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C173)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="9" t="str">
+        <f>IF(ISBLANK(C174),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C174)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="9" t="str">
+        <f>IF(ISBLANK(C175),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C175)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="9" t="str">
+        <f>IF(ISBLANK(C176),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C176)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="9" t="str">
+        <f>IF(ISBLANK(C177),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C177)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="9" t="str">
+        <f>IF(ISBLANK(C178),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C178)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="9" t="str">
+        <f>IF(ISBLANK(C179),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C179)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="9" t="str">
+        <f>IF(ISBLANK(C180),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C180)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="9" t="str">
+        <f>IF(ISBLANK(C181),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C181)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182" s="9" t="str">
+        <f>IF(ISBLANK(C182),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C182)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="9" t="str">
+        <f>IF(ISBLANK(C183),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C183)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="9" t="str">
+        <f>IF(ISBLANK(C184),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C184)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="9" t="str">
+        <f>IF(ISBLANK(C185),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C185)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="9" t="str">
+        <f>IF(ISBLANK(C186),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C186)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="9" t="str">
+        <f>IF(ISBLANK(C187),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C187)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D188" s="9" t="str">
+        <f>IF(ISBLANK(C188),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C188)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="9" t="str">
+        <f>IF(ISBLANK(C189),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C189)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D190" s="9" t="str">
+        <f>IF(ISBLANK(C190),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C190)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D191" s="9" t="str">
+        <f>IF(ISBLANK(C191),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C191)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D192" s="9" t="str">
+        <f>IF(ISBLANK(C192),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C192)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193" s="9" t="str">
+        <f>IF(ISBLANK(C193),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C193)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194" s="9" t="str">
+        <f>IF(ISBLANK(C194),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C194)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="9" t="str">
+        <f>IF(ISBLANK(C195),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C195)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196" s="9" t="str">
+        <f>IF(ISBLANK(C196),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C196)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="9" t="str">
+        <f>IF(ISBLANK(C197),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C197)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="9" t="str">
+        <f>IF(ISBLANK(C198),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C198)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="9" t="str">
+        <f>IF(ISBLANK(C199),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C199)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200" s="9" t="str">
+        <f>IF(ISBLANK(C200),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C200)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wkd9SpSPQtxV68DjI5sJrrTLWruJtRbt+l5kU+yUL0eTEamA44OYS+82qT/wj2r108Wj65eKZ/l4gDdBchmfbg==" saltValue="kr+NnhVSpNnNa/0oBLuHBg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+okQ70ltHyfFd3GapAqz6i/on/QTov74cTmAtdvBI++EVw4HDEXM3N8Mk97cG1FkBRp3s1Ike9v1WFgF/tCD5g==" saltValue="xohnn4sKZ94i8OrlxnH1cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="A2:D200" name="DataRange"/>
+    <protectedRange sqref="A2:C200" name="DataRange"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1121,7 +2132,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1136,87 +2147,275 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
+      <c r="B3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25"/>
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="17" x14ac:dyDescent="0.25"/>
     <row r="18" x14ac:dyDescent="0.25"/>
     <row r="19" x14ac:dyDescent="0.25"/>
@@ -1402,7 +2601,7 @@
     <row r="199" x14ac:dyDescent="0.25"/>
     <row r="200" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k+MdTZPcqV+21ymGhONic3VlSk0W0N7E1dXVud3SuJqnPT97wyraz7LOe5C1pT6Hr1Z8HGpOrTGfH4YKaCj0Rg==" saltValue="rudVOmIBTgWYhrs0H0AIpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3c9MvxtSiZJyrMtqLeydT7iLtdd3jqNLVuw/0XXrKi9MPtOTP+UJ95mW1Uo0C7844fBhre8QfdcDyTJ95Bq4RQ==" saltValue="lVVpDBmzO7wfvZ11HZl5Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
   <protectedRanges>
     <protectedRange sqref="A2:P200" name="TableRange"/>
   </protectedRanges>

--- a/org_eval/resources/data.xlsx
+++ b/org_eval/resources/data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sandbox\git\org-eval\org_eval\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="gdhS0tNbxqcAoVT1mIqD5h2x1MrzFHxY282Gi3m90gLDAaZx0TS3DzQpgBbKbAVika+2NN7OJnD9r6Vg/tXJQA==" workbookSaltValue="B1crDBgxi4nTbRi39IZzSw==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="TFq1ViHjHtfv6qfACwKXmp6hn0wkkOr2ySaVAb1nDM6iRyoEeleSmic4GFPNlJijpTh9SfJ+SzWT/60zUdxoWA==" workbookSaltValue="EqxVc51WxVvguAzgvHAq+w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Table" sheetId="2" r:id="rId2"/>
+    <sheet name="Evaluator" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
   <si>
     <t>Nama</t>
   </si>
@@ -187,13 +187,13 @@
     <t>Jehoshua Hanky Pratama</t>
   </si>
   <si>
-    <t>Tabel Evaluasi</t>
-  </si>
-  <si>
     <t>Evaluator</t>
   </si>
   <si>
     <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Evaluasi</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="9" t="str">
-        <f>IF(ISBLANK(C2),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C2)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C2),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C2)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -638,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>IF(ISBLANK(C3),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C3)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C3),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C3)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -653,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="9" t="str">
-        <f>IF(ISBLANK(C4),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C4)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C4),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C4)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f>IF(ISBLANK(C5),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C5)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C5),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C5)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -683,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="9" t="str">
-        <f>IF(ISBLANK(C6),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C6)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C6),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C6)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="9" t="str">
-        <f>IF(ISBLANK(C7),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C7)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C7),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C7)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -713,7 +713,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="9" t="str">
-        <f>IF(ISBLANK(C8),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C8)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C8),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C8)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -728,7 +728,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="9" t="str">
-        <f>IF(ISBLANK(C9),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C9)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C9),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C9)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -743,7 +743,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="9" t="str">
-        <f>IF(ISBLANK(C10),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C10)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C10),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C10)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -758,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="9" t="str">
-        <f>IF(ISBLANK(C11),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C11)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C11),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C11)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -773,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="9" t="str">
-        <f>IF(ISBLANK(C12),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C12)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C12),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C12)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -788,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="9" t="str">
-        <f>IF(ISBLANK(C13),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C13)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C13),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C13)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -803,7 +803,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="9" t="str">
-        <f>IF(ISBLANK(C14),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C14)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C14),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C14)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -818,7 +818,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="9" t="str">
-        <f>IF(ISBLANK(C15),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C15)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C15),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C15)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -833,7 +833,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="9" t="str">
-        <f>IF(ISBLANK(C16),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C16)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C16),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C16)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="9" t="str">
-        <f>IF(ISBLANK(C17),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C17)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C17),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C17)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -863,7 +863,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="9" t="str">
-        <f>IF(ISBLANK(C18),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C18)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C18),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C18)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -878,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="9" t="str">
-        <f>IF(ISBLANK(C19),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C19)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C19),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C19)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -893,7 +893,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="9" t="str">
-        <f>IF(ISBLANK(C20),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C20)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C20),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C20)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -908,7 +908,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="9" t="str">
-        <f>IF(ISBLANK(C21),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C21)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C21),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C21)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -923,7 +923,7 @@
         <v>33</v>
       </c>
       <c r="D22" s="9" t="str">
-        <f>IF(ISBLANK(C22),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C22)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C22),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C22)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -938,7 +938,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="9" t="str">
-        <f>IF(ISBLANK(C23),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C23)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C23),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C23)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -953,7 +953,7 @@
         <v>37</v>
       </c>
       <c r="D24" s="9" t="str">
-        <f>IF(ISBLANK(C24),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C24)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C24),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C24)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -968,7 +968,7 @@
         <v>37</v>
       </c>
       <c r="D25" s="9" t="str">
-        <f>IF(ISBLANK(C25),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C25)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C25),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C25)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -983,7 +983,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="9" t="str">
-        <f>IF(ISBLANK(C26),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C26)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C26),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C26)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -998,7 +998,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="9" t="str">
-        <f>IF(ISBLANK(C27),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C27)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C27),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C27)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>42</v>
       </c>
       <c r="D28" s="9" t="str">
-        <f>IF(ISBLANK(C28),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C28)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C28),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C28)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
         <v>44</v>
       </c>
       <c r="D29" s="9" t="str">
-        <f>IF(ISBLANK(C29),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C29)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C29),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C29)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
@@ -1043,8 +1043,8 @@
         <v>46</v>
       </c>
       <c r="D30" s="9" t="str">
-        <f>IF(ISBLANK(C30),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C30)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
-        <v>Dievaluasi</v>
+        <f>IF(ISBLANK(C30),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C30)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Belum/Tidak Dievaluasi</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,8 +1058,8 @@
         <v>46</v>
       </c>
       <c r="D31" s="9" t="str">
-        <f>IF(ISBLANK(C31),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C31)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
-        <v>Dievaluasi</v>
+        <f>IF(ISBLANK(C31),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C31)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Belum/Tidak Dievaluasi</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,8 +1073,8 @@
         <v>46</v>
       </c>
       <c r="D32" s="9" t="str">
-        <f>IF(ISBLANK(C32),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C32)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
-        <v>Dievaluasi</v>
+        <f>IF(ISBLANK(C32),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C32)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Belum/Tidak Dievaluasi</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1088,8 +1088,8 @@
         <v>46</v>
       </c>
       <c r="D33" s="9" t="str">
-        <f>IF(ISBLANK(C33),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C33)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
-        <v>Dievaluasi</v>
+        <f>IF(ISBLANK(C33),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C33)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Belum/Tidak Dievaluasi</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,8 +1103,8 @@
         <v>46</v>
       </c>
       <c r="D34" s="9" t="str">
-        <f>IF(ISBLANK(C34),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C34)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
-        <v>Dievaluasi</v>
+        <f>IF(ISBLANK(C34),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C34)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Belum/Tidak Dievaluasi</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1118,999 +1118,999 @@
         <v>46</v>
       </c>
       <c r="D35" s="9" t="str">
-        <f>IF(ISBLANK(C35),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C35)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
-        <v>Dievaluasi</v>
+        <f>IF(ISBLANK(C35),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C35)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <v>Belum/Tidak Dievaluasi</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="D36" s="9" t="str">
-        <f>IF(ISBLANK(C36),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C36)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C36),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C36)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D37" s="9" t="str">
-        <f>IF(ISBLANK(C37),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C37)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C37),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C37)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" s="9" t="str">
-        <f>IF(ISBLANK(C38),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C38)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C38),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C38)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" s="9" t="str">
-        <f>IF(ISBLANK(C39),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C39)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C39),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C39)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" s="9" t="str">
-        <f>IF(ISBLANK(C40),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C40)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C40),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C40)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D41" s="9" t="str">
-        <f>IF(ISBLANK(C41),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C41)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C41),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C41)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D42" s="9" t="str">
-        <f>IF(ISBLANK(C42),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C42)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C42),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C42)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D43" s="9" t="str">
-        <f>IF(ISBLANK(C43),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C43)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C43),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C43)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D44" s="9" t="str">
-        <f>IF(ISBLANK(C44),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C44)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C44),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C44)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D45" s="9" t="str">
-        <f>IF(ISBLANK(C45),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C45)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C45),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C45)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" s="9" t="str">
-        <f>IF(ISBLANK(C46),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C46)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C46),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C46)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D47" s="9" t="str">
-        <f>IF(ISBLANK(C47),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C47)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C47),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C47)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" s="9" t="str">
-        <f>IF(ISBLANK(C48),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C48)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C48),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C48)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="9" t="str">
-        <f>IF(ISBLANK(C49),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C49)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C49),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C49)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="9" t="str">
-        <f>IF(ISBLANK(C50),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C50)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C50),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C50)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="9" t="str">
-        <f>IF(ISBLANK(C51),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C51)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C51),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C51)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="9" t="str">
-        <f>IF(ISBLANK(C52),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C52)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C52),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C52)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="9" t="str">
-        <f>IF(ISBLANK(C53),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C53)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C53),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C53)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="9" t="str">
-        <f>IF(ISBLANK(C54),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C54)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C54),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C54)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="9" t="str">
-        <f>IF(ISBLANK(C55),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C55)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C55),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C55)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="9" t="str">
-        <f>IF(ISBLANK(C56),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C56)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C56),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C56)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="9" t="str">
-        <f>IF(ISBLANK(C57),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C57)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C57),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C57)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="9" t="str">
-        <f>IF(ISBLANK(C58),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C58)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C58),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C58)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="9" t="str">
-        <f>IF(ISBLANK(C59),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C59)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C59),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C59)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="9" t="str">
-        <f>IF(ISBLANK(C60),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C60)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C60),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C60)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="9" t="str">
-        <f>IF(ISBLANK(C61),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C61)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C61),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C61)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="9" t="str">
-        <f>IF(ISBLANK(C62),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C62)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C62),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C62)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="9" t="str">
-        <f>IF(ISBLANK(C63),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C63)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C63),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C63)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="9" t="str">
-        <f>IF(ISBLANK(C64),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C64)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C64),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C64)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="9" t="str">
-        <f>IF(ISBLANK(C65),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C65)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C65),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C65)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="9" t="str">
-        <f>IF(ISBLANK(C66),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C66)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C66),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C66)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="9" t="str">
-        <f>IF(ISBLANK(C67),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C67)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C67),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C67)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="9" t="str">
-        <f>IF(ISBLANK(C68),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C68)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C68),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C68)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="9" t="str">
-        <f>IF(ISBLANK(C69),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C69)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C69),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C69)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="9" t="str">
-        <f>IF(ISBLANK(C70),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C70)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C70),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C70)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="9" t="str">
-        <f>IF(ISBLANK(C71),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C71)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C71),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C71)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="9" t="str">
-        <f>IF(ISBLANK(C72),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C72)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C72),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C72)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="9" t="str">
-        <f>IF(ISBLANK(C73),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C73)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C73),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C73)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="9" t="str">
-        <f>IF(ISBLANK(C74),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C74)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C74),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C74)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="9" t="str">
-        <f>IF(ISBLANK(C75),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C75)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C75),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C75)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="9" t="str">
-        <f>IF(ISBLANK(C76),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C76)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C76),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C76)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="9" t="str">
-        <f>IF(ISBLANK(C77),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C77)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C77),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C77)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="9" t="str">
-        <f>IF(ISBLANK(C78),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C78)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C78),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C78)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="9" t="str">
-        <f>IF(ISBLANK(C79),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C79)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C79),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C79)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="9" t="str">
-        <f>IF(ISBLANK(C80),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C80)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C80),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C80)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="9" t="str">
-        <f>IF(ISBLANK(C81),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C81)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C81),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C81)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="9" t="str">
-        <f>IF(ISBLANK(C82),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C82)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C82),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C82)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="9" t="str">
-        <f>IF(ISBLANK(C83),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C83)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C83),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C83)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="9" t="str">
-        <f>IF(ISBLANK(C84),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C84)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C84),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C84)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="9" t="str">
-        <f>IF(ISBLANK(C85),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C85)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C85),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C85)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="9" t="str">
-        <f>IF(ISBLANK(C86),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C86)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C86),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C86)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="9" t="str">
-        <f>IF(ISBLANK(C87),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C87)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C87),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C87)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="9" t="str">
-        <f>IF(ISBLANK(C88),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C88)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C88),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C88)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="9" t="str">
-        <f>IF(ISBLANK(C89),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C89)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C89),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C89)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="9" t="str">
-        <f>IF(ISBLANK(C90),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C90)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C90),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C90)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="9" t="str">
-        <f>IF(ISBLANK(C91),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C91)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C91),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C91)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="9" t="str">
-        <f>IF(ISBLANK(C92),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C92)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C92),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C92)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="9" t="str">
-        <f>IF(ISBLANK(C93),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C93)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C93),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C93)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="9" t="str">
-        <f>IF(ISBLANK(C94),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C94)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C94),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C94)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="9" t="str">
-        <f>IF(ISBLANK(C95),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C95)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C95),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C95)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="9" t="str">
-        <f>IF(ISBLANK(C96),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C96)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C96),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C96)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="9" t="str">
-        <f>IF(ISBLANK(C97),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C97)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C97),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C97)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="9" t="str">
-        <f>IF(ISBLANK(C98),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C98)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C98),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C98)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="9" t="str">
-        <f>IF(ISBLANK(C99),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C99)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C99),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C99)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="9" t="str">
-        <f>IF(ISBLANK(C100),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C100)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C100),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C100)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="9" t="str">
-        <f>IF(ISBLANK(C101),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C101)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C101),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C101)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="9" t="str">
-        <f>IF(ISBLANK(C102),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C102)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C102),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C102)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="9" t="str">
-        <f>IF(ISBLANK(C103),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C103)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C103),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C103)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="9" t="str">
-        <f>IF(ISBLANK(C104),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C104)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C104),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C104)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="9" t="str">
-        <f>IF(ISBLANK(C105),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C105)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C105),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C105)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="9" t="str">
-        <f>IF(ISBLANK(C106),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C106)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C106),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C106)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="9" t="str">
-        <f>IF(ISBLANK(C107),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C107)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C107),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C107)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="9" t="str">
-        <f>IF(ISBLANK(C108),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C108)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C108),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C108)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="9" t="str">
-        <f>IF(ISBLANK(C109),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C109)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C109),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C109)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="9" t="str">
-        <f>IF(ISBLANK(C110),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C110)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C110),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C110)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="9" t="str">
-        <f>IF(ISBLANK(C111),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C111)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C111),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C111)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="9" t="str">
-        <f>IF(ISBLANK(C112),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C112)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C112),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C112)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="9" t="str">
-        <f>IF(ISBLANK(C113),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C113)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C113),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C113)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="9" t="str">
-        <f>IF(ISBLANK(C114),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C114)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C114),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C114)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="9" t="str">
-        <f>IF(ISBLANK(C115),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C115)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C115),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C115)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="9" t="str">
-        <f>IF(ISBLANK(C116),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C116)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C116),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C116)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="9" t="str">
-        <f>IF(ISBLANK(C117),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C117)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C117),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C117)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="9" t="str">
-        <f>IF(ISBLANK(C118),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C118)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C118),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C118)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="9" t="str">
-        <f>IF(ISBLANK(C119),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C119)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C119),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C119)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="9" t="str">
-        <f>IF(ISBLANK(C120),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C120)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C120),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C120)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="9" t="str">
-        <f>IF(ISBLANK(C121),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C121)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C121),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C121)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="9" t="str">
-        <f>IF(ISBLANK(C122),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C122)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C122),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C122)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="9" t="str">
-        <f>IF(ISBLANK(C123),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C123)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C123),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C123)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="9" t="str">
-        <f>IF(ISBLANK(C124),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C124)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C124),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C124)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="9" t="str">
-        <f>IF(ISBLANK(C125),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C125)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C125),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C125)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="9" t="str">
-        <f>IF(ISBLANK(C126),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C126)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C126),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C126)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="9" t="str">
-        <f>IF(ISBLANK(C127),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C127)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C127),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C127)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="9" t="str">
-        <f>IF(ISBLANK(C128),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C128)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C128),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C128)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="9" t="str">
-        <f>IF(ISBLANK(C129),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C129)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C129),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C129)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="9" t="str">
-        <f>IF(ISBLANK(C130),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C130)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C130),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C130)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="9" t="str">
-        <f>IF(ISBLANK(C131),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C131)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C131),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C131)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="9" t="str">
-        <f>IF(ISBLANK(C132),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C132)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C132),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C132)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="9" t="str">
-        <f>IF(ISBLANK(C133),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C133)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C133),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C133)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="9" t="str">
-        <f>IF(ISBLANK(C134),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C134)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C134),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C134)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="9" t="str">
-        <f>IF(ISBLANK(C135),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C135)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C135),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C135)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="9" t="str">
-        <f>IF(ISBLANK(C136),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C136)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C136),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C136)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="9" t="str">
-        <f>IF(ISBLANK(C137),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C137)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C137),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C137)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="9" t="str">
-        <f>IF(ISBLANK(C138),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C138)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C138),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C138)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="9" t="str">
-        <f>IF(ISBLANK(C139),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C139)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C139),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C139)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="9" t="str">
-        <f>IF(ISBLANK(C140),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C140)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C140),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C140)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="9" t="str">
-        <f>IF(ISBLANK(C141),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C141)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C141),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C141)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="9" t="str">
-        <f>IF(ISBLANK(C142),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C142)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C142),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C142)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="9" t="str">
-        <f>IF(ISBLANK(C143),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C143)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C143),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C143)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="9" t="str">
-        <f>IF(ISBLANK(C144),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C144)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C144),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C144)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="9" t="str">
-        <f>IF(ISBLANK(C145),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C145)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C145),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C145)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="9" t="str">
-        <f>IF(ISBLANK(C146),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C146)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C146),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C146)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="9" t="str">
-        <f>IF(ISBLANK(C147),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C147)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C147),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C147)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="9" t="str">
-        <f>IF(ISBLANK(C148),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C148)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C148),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C148)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="9" t="str">
-        <f>IF(ISBLANK(C149),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C149)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C149),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C149)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="9" t="str">
-        <f>IF(ISBLANK(C150),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C150)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C150),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C150)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="9" t="str">
-        <f>IF(ISBLANK(C151),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C151)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C151),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C151)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="9" t="str">
-        <f>IF(ISBLANK(C152),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C152)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C152),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C152)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="9" t="str">
-        <f>IF(ISBLANK(C153),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C153)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C153),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C153)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="9" t="str">
-        <f>IF(ISBLANK(C154),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C154)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C154),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C154)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="9" t="str">
-        <f>IF(ISBLANK(C155),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C155)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C155),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C155)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="9" t="str">
-        <f>IF(ISBLANK(C156),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C156)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C156),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C156)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="9" t="str">
-        <f>IF(ISBLANK(C157),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C157)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C157),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C157)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="9" t="str">
-        <f>IF(ISBLANK(C158),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C158)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C158),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C158)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="9" t="str">
-        <f>IF(ISBLANK(C159),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C159)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C159),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C159)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="9" t="str">
-        <f>IF(ISBLANK(C160),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C160)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C160),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C160)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="9" t="str">
-        <f>IF(ISBLANK(C161),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C161)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C161),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C161)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="9" t="str">
-        <f>IF(ISBLANK(C162),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C162)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C162),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C162)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="9" t="str">
-        <f>IF(ISBLANK(C163),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C163)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C163),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C163)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="9" t="str">
-        <f>IF(ISBLANK(C164),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C164)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C164),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C164)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" s="9" t="str">
-        <f>IF(ISBLANK(C165),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C165)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C165),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C165)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="9" t="str">
-        <f>IF(ISBLANK(C166),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C166)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C166),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C166)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="9" t="str">
-        <f>IF(ISBLANK(C167),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C167)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C167),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C167)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" s="9" t="str">
-        <f>IF(ISBLANK(C168),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C168)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C168),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C168)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" s="9" t="str">
-        <f>IF(ISBLANK(C169),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C169)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C169),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C169)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" s="9" t="str">
-        <f>IF(ISBLANK(C170),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C170)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C170),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C170)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="9" t="str">
-        <f>IF(ISBLANK(C171),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C171)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C171),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C171)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="9" t="str">
-        <f>IF(ISBLANK(C172),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C172)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C172),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C172)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="9" t="str">
-        <f>IF(ISBLANK(C173),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C173)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C173),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C173)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="9" t="str">
-        <f>IF(ISBLANK(C174),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C174)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C174),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C174)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="9" t="str">
-        <f>IF(ISBLANK(C175),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C175)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C175),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C175)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" s="9" t="str">
-        <f>IF(ISBLANK(C176),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C176)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C176),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C176)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="9" t="str">
-        <f>IF(ISBLANK(C177),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C177)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C177),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C177)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" s="9" t="str">
-        <f>IF(ISBLANK(C178),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C178)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C178),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C178)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" s="9" t="str">
-        <f>IF(ISBLANK(C179),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C179)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C179),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C179)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" s="9" t="str">
-        <f>IF(ISBLANK(C180),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C180)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C180),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C180)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" s="9" t="str">
-        <f>IF(ISBLANK(C181),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C181)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C181),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C181)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" s="9" t="str">
-        <f>IF(ISBLANK(C182),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C182)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C182),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C182)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183" s="9" t="str">
-        <f>IF(ISBLANK(C183),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C183)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C183),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C183)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184" s="9" t="str">
-        <f>IF(ISBLANK(C184),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C184)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C184),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C184)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185" s="9" t="str">
-        <f>IF(ISBLANK(C185),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C185)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C185),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C185)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186" s="9" t="str">
-        <f>IF(ISBLANK(C186),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C186)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C186),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C186)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187" s="9" t="str">
-        <f>IF(ISBLANK(C187),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C187)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C187),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C187)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" s="9" t="str">
-        <f>IF(ISBLANK(C188),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C188)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C188),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C188)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" s="9" t="str">
-        <f>IF(ISBLANK(C189),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C189)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C189),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C189)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190" s="9" t="str">
-        <f>IF(ISBLANK(C190),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C190)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C190),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C190)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191" s="9" t="str">
-        <f>IF(ISBLANK(C191),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C191)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C191),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C191)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192" s="9" t="str">
-        <f>IF(ISBLANK(C192),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C192)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C192),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C192)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" s="9" t="str">
-        <f>IF(ISBLANK(C193),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C193)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C193),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C193)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" s="9" t="str">
-        <f>IF(ISBLANK(C194),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C194)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C194),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C194)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" s="9" t="str">
-        <f>IF(ISBLANK(C195),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C195)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C195),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C195)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" s="9" t="str">
-        <f>IF(ISBLANK(C196),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C196)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C196),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C196)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" s="9" t="str">
-        <f>IF(ISBLANK(C197),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C197)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C197),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C197)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" s="9" t="str">
-        <f>IF(ISBLANK(C198),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C198)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C198),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C198)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" s="9" t="str">
-        <f>IF(ISBLANK(C199),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C199)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C199),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C199)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" s="9" t="str">
-        <f>IF(ISBLANK(C200),"",IF(COUNTIF(Table!$A$2:$A$200,Data!C200)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
+        <f>IF(ISBLANK(C200),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C200)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
@@ -2128,11 +2128,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2147,10 +2147,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2406,15 +2406,9 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" x14ac:dyDescent="0.25"/>
     <row r="18" x14ac:dyDescent="0.25"/>
@@ -2601,7 +2595,7 @@
     <row r="199" x14ac:dyDescent="0.25"/>
     <row r="200" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3c9MvxtSiZJyrMtqLeydT7iLtdd3jqNLVuw/0XXrKi9MPtOTP+UJ95mW1Uo0C7844fBhre8QfdcDyTJ95Bq4RQ==" saltValue="lVVpDBmzO7wfvZ11HZl5Tg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fAoyozADwZnhyQAQSO2HvpFjAGVTLw2L6NoV9sHFkfrOiX1Q9NCEIvpVDy82PgK+xC4LTqONdUEzphkrLup9yg==" saltValue="TVCo98V+xMHDUY1kyBU8zA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
   <protectedRanges>
     <protectedRange sqref="A2:P200" name="TableRange"/>
   </protectedRanges>

--- a/org_eval/resources/data.xlsx
+++ b/org_eval/resources/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
   <si>
     <t>Nama</t>
   </si>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D30" s="9" t="str">
         <f>IF(ISBLANK(C30),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C30)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
-        <v>Belum/Tidak Dievaluasi</v>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D31" s="9" t="str">
         <f>IF(ISBLANK(C31),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C31)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
-        <v>Belum/Tidak Dievaluasi</v>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D32" s="9" t="str">
         <f>IF(ISBLANK(C32),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C32)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
-        <v>Belum/Tidak Dievaluasi</v>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D33" s="9" t="str">
         <f>IF(ISBLANK(C33),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C33)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
-        <v>Belum/Tidak Dievaluasi</v>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="D34" s="9" t="str">
         <f>IF(ISBLANK(C34),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C34)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
-        <v>Belum/Tidak Dievaluasi</v>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D35" s="9" t="str">
         <f>IF(ISBLANK(C35),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C35)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
-        <v>Belum/Tidak Dievaluasi</v>
+        <v>Dievaluasi</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2280,6 +2280,9 @@
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -2325,6 +2328,9 @@
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -2370,6 +2376,9 @@
       <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -2406,9 +2415,18 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25"/>
     <row r="18" x14ac:dyDescent="0.25"/>

--- a/org_eval/resources/data.xlsx
+++ b/org_eval/resources/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sandbox\git\org-eval\org_eval\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sandbox\git\playground\org-eval\org_eval\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="TFq1ViHjHtfv6qfACwKXmp6hn0wkkOr2ySaVAb1nDM6iRyoEeleSmic4GFPNlJijpTh9SfJ+SzWT/60zUdxoWA==" workbookSaltValue="EqxVc51WxVvguAzgvHAq+w==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Gx4PnQBghHa76Aa+3E8oNZroeIUGsx5t8WOPH8ut/ehbr2vCqEE1n1WdPku5QqnHqIEpanC5UG8yDMij+LHAtA==" workbookSaltValue="p/ANBP9SRF1hsujPSCN6vQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -619,7 +619,7 @@
       <c r="B2" s="3">
         <v>462015039</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="str">
@@ -634,7 +634,7 @@
       <c r="B3" s="3">
         <v>712016045</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="9" t="str">
@@ -649,7 +649,7 @@
       <c r="B4" s="3">
         <v>112016091</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="9" t="str">
@@ -664,7 +664,7 @@
       <c r="B5" s="3">
         <v>362015120</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="9" t="str">
@@ -679,7 +679,7 @@
       <c r="B6" s="3">
         <v>802015119</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="9" t="str">
@@ -694,7 +694,7 @@
       <c r="B7" s="3">
         <v>672016145</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="9" t="str">
@@ -709,7 +709,7 @@
       <c r="B8" s="3">
         <v>362015114</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="9" t="str">
@@ -724,7 +724,7 @@
       <c r="B9" s="3">
         <v>362015150</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="9" t="str">
@@ -739,7 +739,7 @@
       <c r="B10" s="3">
         <v>522016049</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="9" t="str">
@@ -754,7 +754,7 @@
       <c r="B11" s="3">
         <v>522015054</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="9" t="str">
@@ -769,7 +769,7 @@
       <c r="B12" s="3">
         <v>412015019</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="9" t="str">
@@ -784,7 +784,7 @@
       <c r="B13" s="3">
         <v>802015184</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="9" t="str">
@@ -799,7 +799,7 @@
       <c r="B14" s="3">
         <v>662015010</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="9" t="str">
@@ -814,7 +814,7 @@
       <c r="B15" s="3">
         <v>612016002</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="9" t="str">
@@ -829,7 +829,7 @@
       <c r="B16" s="3">
         <v>212015265</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="9" t="str">
@@ -844,7 +844,7 @@
       <c r="B17" s="3">
         <v>312015076</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="9" t="str">
@@ -859,7 +859,7 @@
       <c r="B18" s="3">
         <v>672016198</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="9" t="str">
@@ -874,7 +874,7 @@
       <c r="B19" s="3">
         <v>802015033</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="9" t="str">
@@ -889,7 +889,7 @@
       <c r="B20" s="3">
         <v>712015118</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="9" t="str">
@@ -904,7 +904,7 @@
       <c r="B21" s="3">
         <v>712015065</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="9" t="str">
@@ -919,7 +919,7 @@
       <c r="B22" s="3">
         <v>362015129</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="9" t="str">
@@ -934,7 +934,7 @@
       <c r="B23" s="3">
         <v>802015127</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="9" t="str">
@@ -949,7 +949,7 @@
       <c r="B24" s="3">
         <v>432015015</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="9" t="str">
@@ -964,7 +964,7 @@
       <c r="B25" s="3">
         <v>672016159</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="9" t="str">
@@ -979,7 +979,7 @@
       <c r="B26" s="3">
         <v>232016076</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="9" t="str">
@@ -994,7 +994,7 @@
       <c r="B27" s="3">
         <v>682015009</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="9" t="str">
@@ -1009,7 +1009,7 @@
       <c r="B28" s="3">
         <v>192015001</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="9" t="str">
@@ -1024,7 +1024,7 @@
       <c r="B29" s="3">
         <v>362015026</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="9" t="str">
@@ -1039,7 +1039,7 @@
       <c r="B30" s="3">
         <v>362015019</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="9" t="str">
@@ -1054,7 +1054,7 @@
       <c r="B31" s="3">
         <v>462015049</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="9" t="str">
@@ -1069,7 +1069,7 @@
       <c r="B32" s="3">
         <v>602015024</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="9" t="str">
@@ -1084,7 +1084,7 @@
       <c r="B33" s="3">
         <v>312016136</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="9" t="str">
@@ -1099,7 +1099,7 @@
       <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="9" t="str">
@@ -1114,7 +1114,7 @@
       <c r="B35" s="3">
         <v>622016003</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="9" t="str">
@@ -2115,12 +2115,24 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+okQ70ltHyfFd3GapAqz6i/on/QTov74cTmAtdvBI++EVw4HDEXM3N8Mk97cG1FkBRp3s1Ike9v1WFgF/tCD5g==" saltValue="xohnn4sKZ94i8OrlxnH1cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PGr0Xt9ehbsZAeQJmVtkN9q0J/M9E7/sIxZsS0hdtP7OVTIcVH+gXRJAcENx3Hr/ZaAggR7wBlRsaYEVHe1ZQQ==" saltValue="/2IMAIDGGIS97BpJqzq/lQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A2:C200" name="DataRange"/>
   </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Evaluator!$A$2:$A$200</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C200</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2129,10 +2141,10 @@
   <dimension ref="A1:P200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2613,7 +2625,7 @@
     <row r="199" x14ac:dyDescent="0.25"/>
     <row r="200" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fAoyozADwZnhyQAQSO2HvpFjAGVTLw2L6NoV9sHFkfrOiX1Q9NCEIvpVDy82PgK+xC4LTqONdUEzphkrLup9yg==" saltValue="TVCo98V+xMHDUY1kyBU8zA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="A9+vrPJxH61Za64DKxPVFtsCJKgZw35bSNZapFFZr32/8ZxbH/Wm3NcYYB+2rSTjeK7wYNqfcCfZDfdoVVeC9g==" saltValue="Y56bi/omfZ37Xn0LV/pDHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0"/>
   <protectedRanges>
     <protectedRange sqref="A2:P200" name="TableRange"/>
   </protectedRanges>

--- a/org_eval/resources/data.xlsx
+++ b/org_eval/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sandbox\git\playground\org-eval\org_eval\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Gx4PnQBghHa76Aa+3E8oNZroeIUGsx5t8WOPH8ut/ehbr2vCqEE1n1WdPku5QqnHqIEpanC5UG8yDMij+LHAtA==" workbookSaltValue="p/ANBP9SRF1hsujPSCN6vQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="gSyRGrDjO4MhM+svEJot3H7yUv4IDqvdBTexg6nsMATUaTC5tTvPKSXtCV7pZGpL7o4YXPH/vBlQd79ADSMPrQ==" workbookSaltValue="cP3qEkqIw0xgBgPvRuhxwA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="55">
   <si>
     <t>Nama</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>Gian Takain</t>
-  </si>
-  <si>
-    <t> 702016025</t>
   </si>
   <si>
     <t>Jehoshua Hanky Pratama</t>
@@ -264,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,17 +269,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -301,6 +292,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,17 +587,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -602,27 +605,27 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>54</v>
+      <c r="D1" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="12">
         <v>462015039</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="str">
+      <c r="D2" s="7" t="str">
         <f>IF(ISBLANK(C2),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C2)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -631,13 +634,13 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="12">
         <v>712016045</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="7" t="str">
         <f>IF(ISBLANK(C3),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C3)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -646,13 +649,13 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="12">
         <v>112016091</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="7" t="str">
         <f>IF(ISBLANK(C4),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C4)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -661,13 +664,13 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="12">
         <v>362015120</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="str">
+      <c r="D5" s="7" t="str">
         <f>IF(ISBLANK(C5),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C5)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -676,13 +679,13 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="12">
         <v>802015119</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="7" t="str">
         <f>IF(ISBLANK(C6),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C6)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -691,13 +694,13 @@
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="12">
         <v>672016145</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="str">
+      <c r="D7" s="7" t="str">
         <f>IF(ISBLANK(C7),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C7)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -706,13 +709,13 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="12">
         <v>362015114</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="7" t="str">
         <f>IF(ISBLANK(C8),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C8)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -721,13 +724,13 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="12">
         <v>362015150</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9" t="str">
+      <c r="D9" s="7" t="str">
         <f>IF(ISBLANK(C9),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C9)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -736,13 +739,13 @@
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="12">
         <v>522016049</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9" t="str">
+      <c r="D10" s="7" t="str">
         <f>IF(ISBLANK(C10),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C10)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -751,13 +754,13 @@
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="12">
         <v>522015054</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9" t="str">
+      <c r="D11" s="7" t="str">
         <f>IF(ISBLANK(C11),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C11)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -766,13 +769,13 @@
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="12">
         <v>412015019</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9" t="str">
+      <c r="D12" s="7" t="str">
         <f>IF(ISBLANK(C12),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C12)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -781,13 +784,13 @@
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="12">
         <v>802015184</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="9" t="str">
+      <c r="D13" s="7" t="str">
         <f>IF(ISBLANK(C13),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C13)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -796,13 +799,13 @@
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="12">
         <v>662015010</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="9" t="str">
+      <c r="D14" s="7" t="str">
         <f>IF(ISBLANK(C14),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C14)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -811,13 +814,13 @@
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="12">
         <v>612016002</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="9" t="str">
+      <c r="D15" s="7" t="str">
         <f>IF(ISBLANK(C15),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C15)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -826,13 +829,13 @@
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="12">
         <v>212015265</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="9" t="str">
+      <c r="D16" s="7" t="str">
         <f>IF(ISBLANK(C16),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C16)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -841,13 +844,13 @@
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="12">
         <v>312015076</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="9" t="str">
+      <c r="D17" s="7" t="str">
         <f>IF(ISBLANK(C17),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C17)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -856,13 +859,13 @@
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="12">
         <v>672016198</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="9" t="str">
+      <c r="D18" s="7" t="str">
         <f>IF(ISBLANK(C18),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C18)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -871,13 +874,13 @@
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="12">
         <v>802015033</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="9" t="str">
+      <c r="D19" s="7" t="str">
         <f>IF(ISBLANK(C19),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C19)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -886,13 +889,13 @@
       <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="12">
         <v>712015118</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9" t="str">
+      <c r="D20" s="7" t="str">
         <f>IF(ISBLANK(C20),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C20)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -901,13 +904,13 @@
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="12">
         <v>712015065</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="9" t="str">
+      <c r="D21" s="7" t="str">
         <f>IF(ISBLANK(C21),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C21)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -916,13 +919,13 @@
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="12">
         <v>362015129</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="9" t="str">
+      <c r="D22" s="7" t="str">
         <f>IF(ISBLANK(C22),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C22)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -931,13 +934,13 @@
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="12">
         <v>802015127</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="9" t="str">
+      <c r="D23" s="7" t="str">
         <f>IF(ISBLANK(C23),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C23)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -946,13 +949,13 @@
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="12">
         <v>432015015</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="9" t="str">
+      <c r="D24" s="7" t="str">
         <f>IF(ISBLANK(C24),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C24)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -961,13 +964,13 @@
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="12">
         <v>672016159</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="9" t="str">
+      <c r="D25" s="7" t="str">
         <f>IF(ISBLANK(C25),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C25)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -976,13 +979,13 @@
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="12">
         <v>232016076</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="9" t="str">
+      <c r="D26" s="7" t="str">
         <f>IF(ISBLANK(C26),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C26)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -991,13 +994,13 @@
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="12">
         <v>682015009</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="9" t="str">
+      <c r="D27" s="7" t="str">
         <f>IF(ISBLANK(C27),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C27)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -1006,13 +1009,13 @@
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="12">
         <v>192015001</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="9" t="str">
+      <c r="D28" s="7" t="str">
         <f>IF(ISBLANK(C28),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C28)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -1021,13 +1024,13 @@
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="12">
         <v>362015026</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="9" t="str">
+      <c r="D29" s="7" t="str">
         <f>IF(ISBLANK(C29),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C29)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -1036,13 +1039,13 @@
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="12">
         <v>362015019</v>
       </c>
       <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="9" t="str">
+      <c r="D30" s="7" t="str">
         <f>IF(ISBLANK(C30),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C30)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -1051,13 +1054,13 @@
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="12">
         <v>462015049</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="9" t="str">
+      <c r="D31" s="7" t="str">
         <f>IF(ISBLANK(C31),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C31)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -1066,13 +1069,13 @@
       <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="12">
         <v>602015024</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="9" t="str">
+      <c r="D32" s="7" t="str">
         <f>IF(ISBLANK(C32),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C32)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -1081,13 +1084,13 @@
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="12">
         <v>312016136</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="9" t="str">
+      <c r="D33" s="7" t="str">
         <f>IF(ISBLANK(C33),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C33)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
@@ -1096,1026 +1099,1026 @@
       <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>51</v>
+      <c r="B34" s="12">
+        <v>702016025</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="9" t="str">
+      <c r="D34" s="7" t="str">
         <f>IF(ISBLANK(C34),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C34)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="3">
+        <v>51</v>
+      </c>
+      <c r="B35" s="12">
         <v>622016003</v>
       </c>
       <c r="C35" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="9" t="str">
+      <c r="D35" s="7" t="str">
         <f>IF(ISBLANK(C35),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C35)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v>Dievaluasi</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="D36" s="9" t="str">
+      <c r="A36" s="4"/>
+      <c r="B36" s="13"/>
+      <c r="D36" s="7" t="str">
         <f>IF(ISBLANK(C36),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C36)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="9" t="str">
+      <c r="D37" s="7" t="str">
         <f>IF(ISBLANK(C37),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C37)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="9" t="str">
+      <c r="D38" s="7" t="str">
         <f>IF(ISBLANK(C38),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C38)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="9" t="str">
+      <c r="D39" s="7" t="str">
         <f>IF(ISBLANK(C39),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C39)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="9" t="str">
+      <c r="D40" s="7" t="str">
         <f>IF(ISBLANK(C40),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C40)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="9" t="str">
+      <c r="D41" s="7" t="str">
         <f>IF(ISBLANK(C41),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C41)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="9" t="str">
+      <c r="D42" s="7" t="str">
         <f>IF(ISBLANK(C42),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C42)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="9" t="str">
+      <c r="D43" s="7" t="str">
         <f>IF(ISBLANK(C43),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C43)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="9" t="str">
+      <c r="D44" s="7" t="str">
         <f>IF(ISBLANK(C44),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C44)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="9" t="str">
+      <c r="D45" s="7" t="str">
         <f>IF(ISBLANK(C45),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C45)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="9" t="str">
+      <c r="D46" s="7" t="str">
         <f>IF(ISBLANK(C46),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C46)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D47" s="9" t="str">
+      <c r="D47" s="7" t="str">
         <f>IF(ISBLANK(C47),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C47)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D48" s="9" t="str">
+      <c r="D48" s="7" t="str">
         <f>IF(ISBLANK(C48),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C48)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="9" t="str">
+      <c r="D49" s="7" t="str">
         <f>IF(ISBLANK(C49),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C49)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="9" t="str">
+      <c r="D50" s="7" t="str">
         <f>IF(ISBLANK(C50),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C50)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="9" t="str">
+      <c r="D51" s="7" t="str">
         <f>IF(ISBLANK(C51),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C51)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="9" t="str">
+      <c r="D52" s="7" t="str">
         <f>IF(ISBLANK(C52),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C52)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="9" t="str">
+      <c r="D53" s="7" t="str">
         <f>IF(ISBLANK(C53),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C53)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="9" t="str">
+      <c r="D54" s="7" t="str">
         <f>IF(ISBLANK(C54),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C54)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="9" t="str">
+      <c r="D55" s="7" t="str">
         <f>IF(ISBLANK(C55),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C55)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="9" t="str">
+      <c r="D56" s="7" t="str">
         <f>IF(ISBLANK(C56),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C56)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="9" t="str">
+      <c r="D57" s="7" t="str">
         <f>IF(ISBLANK(C57),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C57)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="9" t="str">
+      <c r="D58" s="7" t="str">
         <f>IF(ISBLANK(C58),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C58)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="9" t="str">
+      <c r="D59" s="7" t="str">
         <f>IF(ISBLANK(C59),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C59)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="9" t="str">
+      <c r="D60" s="7" t="str">
         <f>IF(ISBLANK(C60),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C60)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="9" t="str">
+      <c r="D61" s="7" t="str">
         <f>IF(ISBLANK(C61),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C61)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="9" t="str">
+      <c r="D62" s="7" t="str">
         <f>IF(ISBLANK(C62),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C62)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="9" t="str">
+      <c r="D63" s="7" t="str">
         <f>IF(ISBLANK(C63),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C63)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D64" s="9" t="str">
+      <c r="D64" s="7" t="str">
         <f>IF(ISBLANK(C64),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C64)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="9" t="str">
+      <c r="D65" s="7" t="str">
         <f>IF(ISBLANK(C65),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C65)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="9" t="str">
+      <c r="D66" s="7" t="str">
         <f>IF(ISBLANK(C66),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C66)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="9" t="str">
+      <c r="D67" s="7" t="str">
         <f>IF(ISBLANK(C67),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C67)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="9" t="str">
+      <c r="D68" s="7" t="str">
         <f>IF(ISBLANK(C68),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C68)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="9" t="str">
+      <c r="D69" s="7" t="str">
         <f>IF(ISBLANK(C69),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C69)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="9" t="str">
+      <c r="D70" s="7" t="str">
         <f>IF(ISBLANK(C70),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C70)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="9" t="str">
+      <c r="D71" s="7" t="str">
         <f>IF(ISBLANK(C71),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C71)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="9" t="str">
+      <c r="D72" s="7" t="str">
         <f>IF(ISBLANK(C72),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C72)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="9" t="str">
+      <c r="D73" s="7" t="str">
         <f>IF(ISBLANK(C73),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C73)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="9" t="str">
+      <c r="D74" s="7" t="str">
         <f>IF(ISBLANK(C74),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C74)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="9" t="str">
+      <c r="D75" s="7" t="str">
         <f>IF(ISBLANK(C75),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C75)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="9" t="str">
+      <c r="D76" s="7" t="str">
         <f>IF(ISBLANK(C76),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C76)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D77" s="9" t="str">
+      <c r="D77" s="7" t="str">
         <f>IF(ISBLANK(C77),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C77)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="9" t="str">
+      <c r="D78" s="7" t="str">
         <f>IF(ISBLANK(C78),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C78)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D79" s="9" t="str">
+      <c r="D79" s="7" t="str">
         <f>IF(ISBLANK(C79),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C79)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="9" t="str">
+      <c r="D80" s="7" t="str">
         <f>IF(ISBLANK(C80),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C80)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="9" t="str">
+      <c r="D81" s="7" t="str">
         <f>IF(ISBLANK(C81),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C81)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="9" t="str">
+      <c r="D82" s="7" t="str">
         <f>IF(ISBLANK(C82),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C82)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" s="9" t="str">
+      <c r="D83" s="7" t="str">
         <f>IF(ISBLANK(C83),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C83)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84" s="9" t="str">
+      <c r="D84" s="7" t="str">
         <f>IF(ISBLANK(C84),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C84)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D85" s="9" t="str">
+      <c r="D85" s="7" t="str">
         <f>IF(ISBLANK(C85),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C85)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D86" s="9" t="str">
+      <c r="D86" s="7" t="str">
         <f>IF(ISBLANK(C86),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C86)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D87" s="9" t="str">
+      <c r="D87" s="7" t="str">
         <f>IF(ISBLANK(C87),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C87)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D88" s="9" t="str">
+      <c r="D88" s="7" t="str">
         <f>IF(ISBLANK(C88),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C88)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D89" s="9" t="str">
+      <c r="D89" s="7" t="str">
         <f>IF(ISBLANK(C89),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C89)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D90" s="9" t="str">
+      <c r="D90" s="7" t="str">
         <f>IF(ISBLANK(C90),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C90)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D91" s="9" t="str">
+      <c r="D91" s="7" t="str">
         <f>IF(ISBLANK(C91),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C91)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D92" s="9" t="str">
+      <c r="D92" s="7" t="str">
         <f>IF(ISBLANK(C92),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C92)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D93" s="9" t="str">
+      <c r="D93" s="7" t="str">
         <f>IF(ISBLANK(C93),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C93)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D94" s="9" t="str">
+      <c r="D94" s="7" t="str">
         <f>IF(ISBLANK(C94),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C94)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D95" s="9" t="str">
+      <c r="D95" s="7" t="str">
         <f>IF(ISBLANK(C95),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C95)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="9" t="str">
+      <c r="D96" s="7" t="str">
         <f>IF(ISBLANK(C96),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C96)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="9" t="str">
+      <c r="D97" s="7" t="str">
         <f>IF(ISBLANK(C97),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C97)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="9" t="str">
+      <c r="D98" s="7" t="str">
         <f>IF(ISBLANK(C98),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C98)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="9" t="str">
+      <c r="D99" s="7" t="str">
         <f>IF(ISBLANK(C99),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C99)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="9" t="str">
+      <c r="D100" s="7" t="str">
         <f>IF(ISBLANK(C100),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C100)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D101" s="9" t="str">
+      <c r="D101" s="7" t="str">
         <f>IF(ISBLANK(C101),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C101)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D102" s="9" t="str">
+      <c r="D102" s="7" t="str">
         <f>IF(ISBLANK(C102),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C102)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D103" s="9" t="str">
+      <c r="D103" s="7" t="str">
         <f>IF(ISBLANK(C103),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C103)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D104" s="9" t="str">
+      <c r="D104" s="7" t="str">
         <f>IF(ISBLANK(C104),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C104)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D105" s="9" t="str">
+      <c r="D105" s="7" t="str">
         <f>IF(ISBLANK(C105),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C105)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D106" s="9" t="str">
+      <c r="D106" s="7" t="str">
         <f>IF(ISBLANK(C106),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C106)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D107" s="9" t="str">
+      <c r="D107" s="7" t="str">
         <f>IF(ISBLANK(C107),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C107)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D108" s="9" t="str">
+      <c r="D108" s="7" t="str">
         <f>IF(ISBLANK(C108),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C108)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D109" s="9" t="str">
+      <c r="D109" s="7" t="str">
         <f>IF(ISBLANK(C109),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C109)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D110" s="9" t="str">
+      <c r="D110" s="7" t="str">
         <f>IF(ISBLANK(C110),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C110)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D111" s="9" t="str">
+      <c r="D111" s="7" t="str">
         <f>IF(ISBLANK(C111),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C111)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D112" s="9" t="str">
+      <c r="D112" s="7" t="str">
         <f>IF(ISBLANK(C112),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C112)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="9" t="str">
+      <c r="D113" s="7" t="str">
         <f>IF(ISBLANK(C113),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C113)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="9" t="str">
+      <c r="D114" s="7" t="str">
         <f>IF(ISBLANK(C114),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C114)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D115" s="9" t="str">
+      <c r="D115" s="7" t="str">
         <f>IF(ISBLANK(C115),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C115)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D116" s="9" t="str">
+      <c r="D116" s="7" t="str">
         <f>IF(ISBLANK(C116),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C116)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D117" s="9" t="str">
+      <c r="D117" s="7" t="str">
         <f>IF(ISBLANK(C117),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C117)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D118" s="9" t="str">
+      <c r="D118" s="7" t="str">
         <f>IF(ISBLANK(C118),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C118)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D119" s="9" t="str">
+      <c r="D119" s="7" t="str">
         <f>IF(ISBLANK(C119),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C119)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D120" s="9" t="str">
+      <c r="D120" s="7" t="str">
         <f>IF(ISBLANK(C120),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C120)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D121" s="9" t="str">
+      <c r="D121" s="7" t="str">
         <f>IF(ISBLANK(C121),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C121)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D122" s="9" t="str">
+      <c r="D122" s="7" t="str">
         <f>IF(ISBLANK(C122),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C122)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D123" s="9" t="str">
+      <c r="D123" s="7" t="str">
         <f>IF(ISBLANK(C123),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C123)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D124" s="9" t="str">
+      <c r="D124" s="7" t="str">
         <f>IF(ISBLANK(C124),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C124)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D125" s="9" t="str">
+      <c r="D125" s="7" t="str">
         <f>IF(ISBLANK(C125),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C125)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D126" s="9" t="str">
+      <c r="D126" s="7" t="str">
         <f>IF(ISBLANK(C126),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C126)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D127" s="9" t="str">
+      <c r="D127" s="7" t="str">
         <f>IF(ISBLANK(C127),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C127)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D128" s="9" t="str">
+      <c r="D128" s="7" t="str">
         <f>IF(ISBLANK(C128),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C128)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D129" s="9" t="str">
+      <c r="D129" s="7" t="str">
         <f>IF(ISBLANK(C129),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C129)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D130" s="9" t="str">
+      <c r="D130" s="7" t="str">
         <f>IF(ISBLANK(C130),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C130)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D131" s="9" t="str">
+      <c r="D131" s="7" t="str">
         <f>IF(ISBLANK(C131),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C131)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D132" s="9" t="str">
+      <c r="D132" s="7" t="str">
         <f>IF(ISBLANK(C132),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C132)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D133" s="9" t="str">
+      <c r="D133" s="7" t="str">
         <f>IF(ISBLANK(C133),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C133)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D134" s="9" t="str">
+      <c r="D134" s="7" t="str">
         <f>IF(ISBLANK(C134),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C134)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D135" s="9" t="str">
+      <c r="D135" s="7" t="str">
         <f>IF(ISBLANK(C135),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C135)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D136" s="9" t="str">
+      <c r="D136" s="7" t="str">
         <f>IF(ISBLANK(C136),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C136)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D137" s="9" t="str">
+      <c r="D137" s="7" t="str">
         <f>IF(ISBLANK(C137),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C137)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D138" s="9" t="str">
+      <c r="D138" s="7" t="str">
         <f>IF(ISBLANK(C138),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C138)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D139" s="9" t="str">
+      <c r="D139" s="7" t="str">
         <f>IF(ISBLANK(C139),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C139)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D140" s="9" t="str">
+      <c r="D140" s="7" t="str">
         <f>IF(ISBLANK(C140),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C140)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D141" s="9" t="str">
+      <c r="D141" s="7" t="str">
         <f>IF(ISBLANK(C141),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C141)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D142" s="9" t="str">
+      <c r="D142" s="7" t="str">
         <f>IF(ISBLANK(C142),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C142)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="9" t="str">
+      <c r="D143" s="7" t="str">
         <f>IF(ISBLANK(C143),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C143)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D144" s="9" t="str">
+      <c r="D144" s="7" t="str">
         <f>IF(ISBLANK(C144),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C144)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D145" s="9" t="str">
+      <c r="D145" s="7" t="str">
         <f>IF(ISBLANK(C145),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C145)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D146" s="9" t="str">
+      <c r="D146" s="7" t="str">
         <f>IF(ISBLANK(C146),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C146)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D147" s="9" t="str">
+      <c r="D147" s="7" t="str">
         <f>IF(ISBLANK(C147),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C147)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D148" s="9" t="str">
+      <c r="D148" s="7" t="str">
         <f>IF(ISBLANK(C148),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C148)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D149" s="9" t="str">
+      <c r="D149" s="7" t="str">
         <f>IF(ISBLANK(C149),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C149)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D150" s="9" t="str">
+      <c r="D150" s="7" t="str">
         <f>IF(ISBLANK(C150),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C150)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D151" s="9" t="str">
+      <c r="D151" s="7" t="str">
         <f>IF(ISBLANK(C151),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C151)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D152" s="9" t="str">
+      <c r="D152" s="7" t="str">
         <f>IF(ISBLANK(C152),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C152)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D153" s="9" t="str">
+      <c r="D153" s="7" t="str">
         <f>IF(ISBLANK(C153),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C153)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D154" s="9" t="str">
+      <c r="D154" s="7" t="str">
         <f>IF(ISBLANK(C154),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C154)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D155" s="9" t="str">
+      <c r="D155" s="7" t="str">
         <f>IF(ISBLANK(C155),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C155)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D156" s="9" t="str">
+      <c r="D156" s="7" t="str">
         <f>IF(ISBLANK(C156),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C156)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D157" s="9" t="str">
+      <c r="D157" s="7" t="str">
         <f>IF(ISBLANK(C157),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C157)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D158" s="9" t="str">
+      <c r="D158" s="7" t="str">
         <f>IF(ISBLANK(C158),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C158)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D159" s="9" t="str">
+      <c r="D159" s="7" t="str">
         <f>IF(ISBLANK(C159),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C159)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D160" s="9" t="str">
+      <c r="D160" s="7" t="str">
         <f>IF(ISBLANK(C160),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C160)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="9" t="str">
+      <c r="D161" s="7" t="str">
         <f>IF(ISBLANK(C161),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C161)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D162" s="9" t="str">
+      <c r="D162" s="7" t="str">
         <f>IF(ISBLANK(C162),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C162)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D163" s="9" t="str">
+      <c r="D163" s="7" t="str">
         <f>IF(ISBLANK(C163),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C163)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D164" s="9" t="str">
+      <c r="D164" s="7" t="str">
         <f>IF(ISBLANK(C164),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C164)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D165" s="9" t="str">
+      <c r="D165" s="7" t="str">
         <f>IF(ISBLANK(C165),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C165)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D166" s="9" t="str">
+      <c r="D166" s="7" t="str">
         <f>IF(ISBLANK(C166),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C166)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D167" s="9" t="str">
+      <c r="D167" s="7" t="str">
         <f>IF(ISBLANK(C167),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C167)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D168" s="9" t="str">
+      <c r="D168" s="7" t="str">
         <f>IF(ISBLANK(C168),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C168)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D169" s="9" t="str">
+      <c r="D169" s="7" t="str">
         <f>IF(ISBLANK(C169),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C169)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D170" s="9" t="str">
+      <c r="D170" s="7" t="str">
         <f>IF(ISBLANK(C170),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C170)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D171" s="9" t="str">
+      <c r="D171" s="7" t="str">
         <f>IF(ISBLANK(C171),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C171)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D172" s="9" t="str">
+      <c r="D172" s="7" t="str">
         <f>IF(ISBLANK(C172),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C172)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D173" s="9" t="str">
+      <c r="D173" s="7" t="str">
         <f>IF(ISBLANK(C173),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C173)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D174" s="9" t="str">
+      <c r="D174" s="7" t="str">
         <f>IF(ISBLANK(C174),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C174)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D175" s="9" t="str">
+      <c r="D175" s="7" t="str">
         <f>IF(ISBLANK(C175),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C175)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D176" s="9" t="str">
+      <c r="D176" s="7" t="str">
         <f>IF(ISBLANK(C176),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C176)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D177" s="9" t="str">
+      <c r="D177" s="7" t="str">
         <f>IF(ISBLANK(C177),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C177)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D178" s="9" t="str">
+      <c r="D178" s="7" t="str">
         <f>IF(ISBLANK(C178),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C178)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D179" s="9" t="str">
+      <c r="D179" s="7" t="str">
         <f>IF(ISBLANK(C179),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C179)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D180" s="9" t="str">
+      <c r="D180" s="7" t="str">
         <f>IF(ISBLANK(C180),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C180)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D181" s="9" t="str">
+      <c r="D181" s="7" t="str">
         <f>IF(ISBLANK(C181),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C181)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D182" s="9" t="str">
+      <c r="D182" s="7" t="str">
         <f>IF(ISBLANK(C182),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C182)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D183" s="9" t="str">
+      <c r="D183" s="7" t="str">
         <f>IF(ISBLANK(C183),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C183)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D184" s="9" t="str">
+      <c r="D184" s="7" t="str">
         <f>IF(ISBLANK(C184),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C184)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D185" s="9" t="str">
+      <c r="D185" s="7" t="str">
         <f>IF(ISBLANK(C185),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C185)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D186" s="9" t="str">
+      <c r="D186" s="7" t="str">
         <f>IF(ISBLANK(C186),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C186)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D187" s="9" t="str">
+      <c r="D187" s="7" t="str">
         <f>IF(ISBLANK(C187),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C187)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D188" s="9" t="str">
+      <c r="D188" s="7" t="str">
         <f>IF(ISBLANK(C188),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C188)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D189" s="9" t="str">
+      <c r="D189" s="7" t="str">
         <f>IF(ISBLANK(C189),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C189)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D190" s="9" t="str">
+      <c r="D190" s="7" t="str">
         <f>IF(ISBLANK(C190),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C190)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D191" s="9" t="str">
+      <c r="D191" s="7" t="str">
         <f>IF(ISBLANK(C191),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C191)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D192" s="9" t="str">
+      <c r="D192" s="7" t="str">
         <f>IF(ISBLANK(C192),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C192)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D193" s="9" t="str">
+      <c r="D193" s="7" t="str">
         <f>IF(ISBLANK(C193),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C193)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D194" s="9" t="str">
+      <c r="D194" s="7" t="str">
         <f>IF(ISBLANK(C194),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C194)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D195" s="9" t="str">
+      <c r="D195" s="7" t="str">
         <f>IF(ISBLANK(C195),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C195)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D196" s="9" t="str">
+      <c r="D196" s="7" t="str">
         <f>IF(ISBLANK(C196),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C196)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D197" s="9" t="str">
+      <c r="D197" s="7" t="str">
         <f>IF(ISBLANK(C197),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C197)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D198" s="9" t="str">
+      <c r="D198" s="7" t="str">
         <f>IF(ISBLANK(C198),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C198)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D199" s="9" t="str">
+      <c r="D199" s="7" t="str">
         <f>IF(ISBLANK(C199),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C199)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D200" s="9" t="str">
+      <c r="D200" s="7" t="str">
         <f>IF(ISBLANK(C200),"",IF(COUNTIF(Evaluator!$A$2:$A$200,Data!C200)&gt;0,"Dievaluasi","Belum/Tidak Dievaluasi"))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PGr0Xt9ehbsZAeQJmVtkN9q0J/M9E7/sIxZsS0hdtP7OVTIcVH+gXRJAcENx3Hr/ZaAggR7wBlRsaYEVHe1ZQQ==" saltValue="/2IMAIDGGIS97BpJqzq/lQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zpTs5/+mZmHxUGfViT9mTqnfZditIl3DEsA06UDH7Y4gmoaTYAfdXtC73GUTk3q1fMJxpzSaoE7zLkryb8/02A==" saltValue="udZ/fYij9rquf90hfVJ6Qw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="A2:C200" name="DataRange"/>
   </protectedRanges>
@@ -2140,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B181" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
@@ -2158,47 +2161,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2206,237 +2209,237 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
